--- a/Assets/Resources/NewItemList/Item_datetable.xlsx
+++ b/Assets/Resources/NewItemList/Item_datetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cf3299fb81afa04/문서/에버모어 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{20EF344F-A3E4-41B3-9D63-6FDDB3A3F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4ABE6DBC-143E-4058-B082-BDF8B8F5F414}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{20EF344F-A3E4-41B3-9D63-6FDDB3A3F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7692471-1890-456D-8FE3-44B39B64CAA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CAC5E13B-209A-418A-9700-C42DE852DF84}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -539,9 +539,28 @@
           <t xml:space="preserve">방패
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E5F8299D-EB10-46DF-B6A5-8A6857538093}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1908B6A6-3719-4F6B-BA76-E53D57A8E251}">
       <text>
         <r>
           <rPr>
@@ -561,696 +580,30 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Bull </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>함수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Item_Class</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">일때
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arrow_Check</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>활</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>또는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화살인지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-0 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>활</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>혹은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화살이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아님
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>활</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>혹은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화살이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">맞음
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arrow_Check</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> true</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>장착할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>때</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>손에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Arrow_Check</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.
-true</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>캐릭터에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>활</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>애니메이션을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적용
-</t>
+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1908B6A6-3719-4F6B-BA76-E53D57A8E251}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{36171DC4-D2BC-4312-8252-BFB1D994CF41}">
       <text>
         <r>
           <rPr>
@@ -1270,30 +623,183 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>참조용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지니는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합산하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{36171DC4-D2BC-4312-8252-BFB1D994CF41}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{551829C7-9335-47D4-9C25-9BAEB30D00C3}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +886,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>최대값</t>
+          <t>최소값</t>
         </r>
         <r>
           <rPr>
@@ -1489,203 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{551829C7-9335-47D4-9C25-9BAEB30D00C3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지니는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>최소값</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모든</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>합산하여</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>결정한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{6E9C31BE-8912-45F8-B743-B7E2BD4789EA}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{6E9C31BE-8912-45F8-B743-B7E2BD4789EA}">
       <text>
         <r>
           <rPr>
@@ -1886,17 +1196,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Item_Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Item_Class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrow_Check</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2463,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2540815-397E-4D6C-9C48-0CBFCC97CA4F}">
-  <dimension ref="B2:P31"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2474,23 +1780,22 @@
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2498,69 +1803,66 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2572,39 +1874,36 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>102</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -2613,39 +1912,36 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
       </c>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -2654,39 +1950,36 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>104</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -2695,39 +1988,36 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -2736,80 +2026,74 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>106</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>107</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2818,39 +2102,36 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>108</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -2859,39 +2140,36 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>109</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -2900,36 +2178,33 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>201</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="1">
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2941,39 +2216,36 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>202</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -2982,39 +2254,36 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>203</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3023,39 +2292,36 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>204</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -3064,39 +2330,36 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>205</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
       <c r="J16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -3105,80 +2368,74 @@
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>206</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>207</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -3187,554 +2444,513 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>301</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
+      <c r="F19" s="1">
+        <v>2</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4</v>
-      </c>
       <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>302</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>303</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>38</v>
+      <c r="F21" s="1">
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>304</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>305</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>306</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
       </c>
       <c r="M24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>501</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="N24" s="1">
+      <c r="K25" s="1">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>307</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>502</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1">
-        <v>5</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="M26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>308</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>503</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5</v>
-      </c>
-      <c r="L26" s="1">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1">
-        <v>5</v>
-      </c>
-      <c r="N26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>501</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
       </c>
       <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>601</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>602</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>307</v>
+      </c>
+      <c r="C30" s="1">
         <v>7</v>
       </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>502</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-      <c r="L28" s="1">
-        <v>4</v>
-      </c>
-      <c r="M28" s="1">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>308</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>503</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>3</v>
-      </c>
-      <c r="N29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>601</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>10</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>602</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:P2" xr:uid="{1D03B527-AC4A-4C09-BE05-174D8A81A097}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:P31">
-      <sortCondition ref="B2"/>
+  <autoFilter ref="B2:O2" xr:uid="{1D03B527-AC4A-4C09-BE05-174D8A81A097}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O31">
+      <sortCondition ref="C2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
